--- a/OK_dividend.xlsx
+++ b/OK_dividend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\25Summer\AD685S A1 Quantitative Methods for Finance (Summer 1 2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA57AF08-6B36-4D05-A521-5481C6AE3BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27926532-5A14-4718-8CC2-E3B08BEB3FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -380,161 +380,97 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45625</v>
+        <v>44895</v>
       </c>
       <c r="B2">
-        <v>0.48499999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45548</v>
+        <v>44819</v>
       </c>
       <c r="B3">
-        <v>0.48499999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45457</v>
+        <v>44726</v>
       </c>
       <c r="B4">
-        <v>0.48499999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45365</v>
+        <v>44634</v>
       </c>
       <c r="B5">
-        <v>0.48499999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45260</v>
+        <v>44530</v>
       </c>
       <c r="B6">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45183</v>
+        <v>44453</v>
       </c>
       <c r="B7">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45092</v>
+        <v>44361</v>
       </c>
       <c r="B8">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45001</v>
+        <v>44267</v>
       </c>
       <c r="B9">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44895</v>
+        <v>44165</v>
       </c>
       <c r="B10">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44819</v>
+        <v>44088</v>
       </c>
       <c r="B11">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44726</v>
+        <v>43994</v>
       </c>
       <c r="B12">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44634</v>
+        <v>43903</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B14">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44453</v>
-      </c>
-      <c r="B15">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44361</v>
-      </c>
-      <c r="B16">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44267</v>
-      </c>
-      <c r="B17">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44165</v>
-      </c>
-      <c r="B18">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44088</v>
-      </c>
-      <c r="B19">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43994</v>
-      </c>
-      <c r="B20">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B21">
         <v>0.41</v>
       </c>
     </row>
